--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Anton</t>
-  </si>
-  <si>
     <t>Пруд</t>
-  </si>
-  <si>
-    <t>1 Раунд</t>
-  </si>
-  <si>
-    <t>2 Раунд</t>
   </si>
 </sst>
 </file>
@@ -360,43 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Игрок</t>
   </si>
   <si>
+    <t>Алексейка</t>
+  </si>
+  <si>
+    <t>anton</t>
+  </si>
+  <si>
     <t>Пруд</t>
+  </si>
+  <si>
+    <t>1 Раунд</t>
+  </si>
+  <si>
+    <t>2 Раунд</t>
   </si>
 </sst>
 </file>
@@ -351,20 +363,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Алексейка</t>
-  </si>
-  <si>
-    <t>anton</t>
+    <t>Алкесюлюлик</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Пруд</t>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>2 Раунд</t>
+  </si>
+  <si>
+    <t>3 Раунд</t>
   </si>
 </sst>
 </file>
@@ -363,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,30 +382,39 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
+      <c r="B3">
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -410,7 +422,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Алкесюлюлик</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Алексей</t>
   </si>
   <si>
     <t>Пруд</t>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t>2 Раунд</t>
-  </si>
-  <si>
-    <t>3 Раунд</t>
   </si>
 </sst>
 </file>
@@ -366,65 +360,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
         <v>4</v>
       </c>
     </row>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Алексей</t>
-  </si>
-  <si>
     <t>Пруд</t>
-  </si>
-  <si>
-    <t>1 Раунд</t>
-  </si>
-  <si>
-    <t>2 Раунд</t>
   </si>
 </sst>
 </file>
@@ -360,43 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Игрок</t>
   </si>
   <si>
+    <t>Egor</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Тостер-тестер</t>
+  </si>
+  <si>
     <t>Пруд</t>
+  </si>
+  <si>
+    <t>1 Раунд</t>
+  </si>
+  <si>
+    <t>2 Раунд</t>
   </si>
 </sst>
 </file>
@@ -351,20 +366,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,27 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Egor</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Тостер-тестер</t>
+    <t>/register</t>
   </si>
   <si>
     <t>Пруд</t>
-  </si>
-  <si>
-    <t>1 Раунд</t>
-  </si>
-  <si>
-    <t>2 Раунд</t>
   </si>
 </sst>
 </file>
@@ -366,65 +354,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>/register</t>
+    <t>S</t>
   </si>
   <si>
     <t>Пруд</t>
+  </si>
+  <si>
+    <t>1 Раунд</t>
+  </si>
+  <si>
+    <t>2 Раунд</t>
+  </si>
+  <si>
+    <t>3 Раунд</t>
   </si>
 </sst>
 </file>
@@ -354,25 +363,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Алекс</t>
   </si>
   <si>
     <t>Пруд</t>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>2 Раунд</t>
-  </si>
-  <si>
-    <t>3 Раунд</t>
   </si>
 </sst>
 </file>
@@ -363,13 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,25 +376,19 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -405,10 +396,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/game_table.xlsx
+++ b/game_table.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Игрок</t>
   </si>
   <si>
-    <t>Алекс</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>/register</t>
   </si>
   <si>
     <t>Пруд</t>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>2 Раунд</t>
+  </si>
+  <si>
+    <t>3 Раунд</t>
   </si>
 </sst>
 </file>
@@ -360,24 +366,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -387,16 +396,36 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>4</v>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
